--- a/Star Regein/Star Regein/VenusLibra.xlsx
+++ b/Star Regein/Star Regein/VenusLibra.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\event\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0217AF0C-7A2D-4A0D-8120-F3FBDC1D78E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="9255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,8 +30,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,305 +191,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3352800" y="952500"/>
-          <a:ext cx="4143375" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FFBF00"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2219325" y="933450"/>
-          <a:ext cx="1133475" cy="3933825"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FFBF00"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6010275" y="2667000"/>
-          <a:ext cx="1533525" cy="3114675"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FFBF00"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2171700" y="4876800"/>
-          <a:ext cx="3800475" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FFBF00"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="733425" y="4876800"/>
-          <a:ext cx="1438275" cy="1533525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FFBF00"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
@@ -498,50 +202,284 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7572375" y="2619375"/>
-          <a:ext cx="533400" cy="4829175"/>
+          <a:off x="733425" y="960664"/>
+          <a:ext cx="7372350" cy="6721929"/>
+          <a:chOff x="733425" y="960664"/>
+          <a:chExt cx="7372350" cy="6721929"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FFBF00"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="2" name="直線コネクタ 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3352800" y="979714"/>
+            <a:ext cx="4143375" cy="1730829"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FFBF00"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2219325" y="960664"/>
+            <a:ext cx="1133475" cy="4059011"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FFBF00"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="直線コネクタ 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6010275" y="2748643"/>
+            <a:ext cx="1533525" cy="3212646"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FFBF00"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="直線コネクタ 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2171700" y="5029200"/>
+            <a:ext cx="3800475" cy="913039"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FFBF00"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="直線コネクタ 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="733425" y="5029200"/>
+            <a:ext cx="1438275" cy="1582511"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FFBF00"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直線コネクタ 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7572375" y="2701018"/>
+            <a:ext cx="533400" cy="4981575"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FFBF00"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -809,19 +747,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD42" sqref="AD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="50" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>99</v>
       </c>
@@ -973,7 +911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>99</v>
       </c>
@@ -1125,7 +1063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>99</v>
       </c>
@@ -1277,7 +1215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>99</v>
       </c>
@@ -1429,7 +1367,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>99</v>
       </c>
@@ -1581,7 +1519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>99</v>
       </c>
@@ -1733,7 +1671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>99</v>
       </c>
@@ -1885,7 +1823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>99</v>
       </c>
@@ -2037,7 +1975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>99</v>
       </c>
@@ -2189,7 +2127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>99</v>
       </c>
@@ -2341,7 +2279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>99</v>
       </c>
@@ -2493,7 +2431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>99</v>
       </c>
@@ -2645,7 +2583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>99</v>
       </c>
@@ -2797,7 +2735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>99</v>
       </c>
@@ -2949,7 +2887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>99</v>
       </c>
@@ -3101,7 +3039,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>99</v>
       </c>
@@ -3253,7 +3191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>99</v>
       </c>
@@ -3405,7 +3343,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>99</v>
       </c>
@@ -3557,7 +3495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>99</v>
       </c>
@@ -3709,7 +3647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>99</v>
       </c>
@@ -3861,7 +3799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>99</v>
       </c>
@@ -4013,7 +3951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>99</v>
       </c>
@@ -4165,7 +4103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>99</v>
       </c>
@@ -4317,7 +4255,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>99</v>
       </c>
@@ -4469,7 +4407,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>99</v>
       </c>
@@ -4621,7 +4559,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>99</v>
       </c>
@@ -4773,7 +4711,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>99</v>
       </c>
@@ -4925,7 +4863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>99</v>
       </c>
@@ -5077,7 +5015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>99</v>
       </c>
@@ -5229,7 +5167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>99</v>
       </c>
@@ -5381,7 +5319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>99</v>
       </c>
@@ -5533,7 +5471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>99</v>
       </c>
@@ -5685,7 +5623,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>99</v>
       </c>
@@ -5837,7 +5775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>99</v>
       </c>
@@ -5989,7 +5927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>99</v>
       </c>
@@ -6141,7 +6079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>99</v>
       </c>
@@ -6293,7 +6231,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>99</v>
       </c>
@@ -6445,7 +6383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>99</v>
       </c>
@@ -6597,7 +6535,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>99</v>
       </c>
@@ -6749,7 +6687,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>99</v>
       </c>
@@ -6901,7 +6839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>99</v>
       </c>
@@ -6939,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -6984,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -7053,7 +6991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>99</v>
       </c>
@@ -7205,7 +7143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>99</v>
       </c>
@@ -7357,7 +7295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>99</v>
       </c>
@@ -7509,7 +7447,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>99</v>
       </c>
@@ -7661,7 +7599,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>99</v>
       </c>
@@ -7813,7 +7751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>99</v>
       </c>
@@ -7965,7 +7903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>99</v>
       </c>
@@ -8117,7 +8055,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>99</v>
       </c>
@@ -8269,7 +8207,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>99</v>
       </c>

--- a/Star Regein/Star Regein/VenusLibra.xlsx
+++ b/Star Regein/Star Regein/VenusLibra.xlsx
@@ -87,7 +87,695 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="99">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -951,13 +1639,13 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="N2" s="1">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2">
@@ -1103,20 +1791,20 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1255,23 +1943,23 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1405,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1414,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1426,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1557,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1703,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1712,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1857,20 +2545,20 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2009,17 +2697,17 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2161,20 +2849,20 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2314,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2323,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2463,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2472,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2612,22 +3300,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="L13" s="1">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2767,22 +3455,22 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2794,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2916,25 +3604,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3071,19 +3759,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3211,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3220,31 +3908,31 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -3328,16 +4016,16 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV17">
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17">
         <v>99</v>
@@ -3360,22 +4048,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3384,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3393,25 +4081,25 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3453,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -3477,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -3486,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18">
         <v>0</v>
@@ -3506,61 +4194,61 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>6</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -3596,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -3629,19 +4317,19 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="1">
         <v>0</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19">
         <v>99</v>
@@ -3655,40 +4343,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3696,13 +4384,13 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
         <v>0</v>
       </c>
       <c r="T20">
@@ -3712,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3745,22 +4433,22 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -3769,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -3778,18 +4466,18 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20">
         <v>0</v>
       </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1">
         <v>0</v>
       </c>
       <c r="AW20">
@@ -3804,39 +4492,39 @@
         <v>99</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>0</v>
       </c>
       <c r="N21">
@@ -3846,30 +4534,30 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="V21" s="1">
+        <v>6</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
         <v>1</v>
       </c>
       <c r="Y21">
@@ -3894,54 +4582,54 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
         <v>0</v>
       </c>
       <c r="AJ21">
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS21">
         <v>0</v>
       </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1">
         <v>0</v>
       </c>
       <c r="AW21">
@@ -3958,44 +4646,44 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4004,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -4013,15 +4701,15 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
         <v>1</v>
       </c>
       <c r="Y22">
@@ -4043,52 +4731,52 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1">
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
         <v>0</v>
       </c>
       <c r="AN22">
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -4097,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22">
         <v>99</v>
@@ -4110,70 +4798,70 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
         <v>0</v>
       </c>
       <c r="Y23">
@@ -4198,42 +4886,42 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="1">
         <v>0</v>
       </c>
       <c r="AJ23">
         <v>0</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1">
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
+      <c r="AP23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
         <v>0</v>
       </c>
       <c r="AS23">
@@ -4243,10 +4931,10 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW23">
         <v>0</v>
@@ -4260,19 +4948,19 @@
         <v>99</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -4284,16 +4972,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -4314,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -4323,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -4353,46 +5041,46 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
         <v>0</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
         <v>0</v>
       </c>
       <c r="AN24">
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
         <v>0</v>
       </c>
       <c r="AS24">
         <v>0</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -4401,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24">
         <v>99</v>
@@ -4412,7 +5100,7 @@
         <v>99</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4421,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4442,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4502,55 +5190,55 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25">
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25">
         <v>0</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -4567,16 +5255,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4669,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -4681,16 +5369,16 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26">
         <v>0</v>
@@ -4718,17 +5406,17 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4767,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -4839,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -4870,17 +5558,17 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5022,20 +5710,20 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -5171,20 +5859,20 @@
       <c r="A30">
         <v>99</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5323,20 +6011,20 @@
       <c r="A31">
         <v>99</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5429,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -5475,17 +6163,17 @@
       <c r="A32">
         <v>99</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5634,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5783,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5931,14 +6619,14 @@
       <c r="A35">
         <v>99</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6083,13 +6771,13 @@
       <c r="A36">
         <v>99</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36">
@@ -6235,13 +6923,13 @@
       <c r="A37">
         <v>99</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37">
@@ -6388,7 +7076,7 @@
         <v>99</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -6540,7 +7228,7 @@
         <v>99</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -6695,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6844,7 +7532,7 @@
         <v>99</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6999,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -7150,13 +7838,13 @@
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43">
@@ -7302,13 +7990,13 @@
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44">
@@ -7318,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -7452,15 +8140,15 @@
         <v>99</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45">
@@ -7475,13 +8163,13 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="J45" s="1">
+        <v>6</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
         <v>0</v>
       </c>
       <c r="M45">
@@ -7610,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -7627,13 +8315,13 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
         <v>0</v>
       </c>
       <c r="M46">
@@ -7759,33 +8447,33 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
+      <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
         <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
         <v>0</v>
       </c>
       <c r="M47">
@@ -7914,25 +8602,25 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -8068,13 +8756,13 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49">
@@ -8087,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -8361,50 +9049,50 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 B40:AW49 Q39:S41 C35:AW39 U34:W36 A4:AW34 B2:AW6">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
+    <cfRule type="cellIs" dxfId="98" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 B40:AW49 Q39:S41 C35:AW39 U34:W36 A4:AW34 B2:AW6">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 B40:AW49 Q39:S41 C35:AW39 U34:W36 A4:AW34 B2:AW6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
+    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 B40:AW49 Q39:S41 C35:AW39 U34:W36 A4:AW34 B2:AW6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 B40:AW49 Q39:S41 C35:AW39 U34:W36 A4:AW34 B2:AW6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 B40:AW49 Q39:S41 C35:AW39 U34:W36 A4:AW34 B2:AW6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
+    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/VenusLibra.xlsx
+++ b/Star Regein/Star Regein/VenusLibra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\新しいフォルダー\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,179 +87,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <font>
         <color theme="0"/>
@@ -908,7 +736,7 @@
           <xdr:cNvPr id="2" name="直線コネクタ 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -952,7 +780,7 @@
           <xdr:cNvPr id="6" name="直線コネクタ 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -996,7 +824,7 @@
           <xdr:cNvPr id="8" name="直線コネクタ 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1040,7 +868,7 @@
           <xdr:cNvPr id="9" name="直線コネクタ 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1084,7 +912,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1128,7 +956,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1439,7 +1267,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD42" sqref="AD42"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1709,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1721,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -1858,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
+      <c r="AL3" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
         <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1885,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1988,26 +1816,26 @@
       <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
+      <c r="AC4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -2015,32 +1843,32 @@
       <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
+      <c r="AQ4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2140,17 +1968,17 @@
       <c r="AB5">
         <v>0</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -2162,40 +1990,40 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
         <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
         <v>0</v>
@@ -2292,65 +2120,65 @@
       <c r="AB6">
         <v>1</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
         <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
+      <c r="AG6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
         <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -2454,25 +2282,25 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -2487,24 +2315,24 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0</v>
       </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
+      <c r="AU7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
         <v>0</v>
       </c>
       <c r="AX7">
@@ -2570,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2603,25 +2431,25 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
         <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2642,21 +2470,21 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1">
         <v>0</v>
       </c>
       <c r="AX8">
@@ -2716,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2758,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2767,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2800,15 +2628,15 @@
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
         <v>0</v>
       </c>
       <c r="AX9">
@@ -2913,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -2955,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
         <v>0</v>
@@ -3104,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11">
         <v>0</v>
@@ -3238,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -3259,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12">
         <v>0</v>
@@ -3291,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3408,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3440,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3557,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -3566,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -3586,18 +3414,18 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15">
@@ -3709,18 +3537,18 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>0</v>
       </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
+      <c r="AU15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1">
         <v>0</v>
       </c>
       <c r="AX15">
@@ -3735,25 +3563,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3819,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3864,15 +3692,15 @@
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="1">
         <v>0</v>
       </c>
       <c r="AX16">
@@ -3884,28 +3712,28 @@
         <v>99</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -3971,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3983,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -4016,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>1</v>
-      </c>
-      <c r="AU17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>0</v>
       </c>
       <c r="AX17">
         <v>99</v>
@@ -4038,26 +3866,26 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4126,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -4141,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -4165,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -4190,26 +4018,26 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4278,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -4317,15 +4145,15 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="1">
-        <v>6</v>
-      </c>
-      <c r="AU19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
         <v>0</v>
       </c>
       <c r="AW19">
@@ -4343,25 +4171,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4471,14 +4299,14 @@
       <c r="AS20">
         <v>0</v>
       </c>
-      <c r="AT20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="1">
-        <v>0</v>
+      <c r="AT20">
+        <v>7</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -4492,28 +4320,28 @@
         <v>99</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -4621,15 +4449,15 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
         <v>0</v>
       </c>
       <c r="AW21">
@@ -4646,23 +4474,23 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4773,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22">
         <v>1</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV22">
         <v>0</v>
@@ -4798,26 +4626,26 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4925,13 +4753,13 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -5077,15 +4905,15 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>1</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="1">
         <v>0</v>
       </c>
       <c r="AW24">
@@ -5148,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -5229,16 +5057,16 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>1</v>
-      </c>
-      <c r="AV25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>0</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -5383,13 +5211,13 @@
       <c r="AS26">
         <v>0</v>
       </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
+      <c r="AT26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="1">
         <v>0</v>
       </c>
       <c r="AW26">
@@ -5425,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5455,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -5533,10 +5361,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -5545,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27">
         <v>99</v>
@@ -5643,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -5691,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW28">
         <v>0</v>
@@ -6117,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="AK31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -6141,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>0</v>
@@ -6278,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -6287,16 +6115,16 @@
         <v>0</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32">
         <v>0</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -6415,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -6427,31 +6255,31 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33">
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>0</v>
       </c>
-      <c r="AR33">
-        <v>0</v>
-      </c>
-      <c r="AS33">
-        <v>0</v>
-      </c>
-      <c r="AT33">
+      <c r="AR33" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="1">
         <v>0</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV33">
         <v>0</v>
@@ -6516,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -6576,13 +6404,13 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>0</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -6591,19 +6419,19 @@
         <v>0</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
-      </c>
-      <c r="AS34">
-        <v>0</v>
-      </c>
-      <c r="AT34">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="1">
         <v>0</v>
       </c>
       <c r="AU34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV34">
         <v>0</v>
@@ -6725,34 +6553,34 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35">
+      <c r="AM35" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="1">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0</v>
       </c>
-      <c r="AR35">
-        <v>0</v>
-      </c>
-      <c r="AS35">
-        <v>0</v>
-      </c>
-      <c r="AT35">
-        <v>0</v>
+      <c r="AR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -6874,31 +6702,31 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="1">
         <v>0</v>
       </c>
       <c r="AP36">
         <v>0</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS36">
         <v>0</v>
@@ -6907,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="AU36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV36">
         <v>0</v>
@@ -7026,37 +6854,37 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
-      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="1">
         <v>0</v>
       </c>
       <c r="AP37">
         <v>0</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -7148,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -7181,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38">
         <v>0</v>
@@ -7196,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -7294,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -7309,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -7330,22 +7158,22 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39">
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -7449,25 +7277,25 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -7476,22 +7304,22 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40">
         <v>0</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40">
         <v>0</v>
       </c>
       <c r="AM40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN40">
         <v>0</v>
@@ -7565,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -7594,49 +7422,49 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
+      <c r="W41" s="1">
+        <v>6</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
         <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41">
         <v>0</v>
       </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
+      <c r="AI41" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="1">
         <v>0</v>
       </c>
       <c r="AL41">
@@ -7646,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AN41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -7723,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -7746,35 +7574,35 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
         <v>0</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
         <v>0</v>
       </c>
       <c r="AE42">
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42">
         <v>0</v>
@@ -7782,20 +7610,20 @@
       <c r="AH42">
         <v>0</v>
       </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AK42">
+      <c r="AI42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="1">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -7896,30 +7724,30 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
         <v>0</v>
       </c>
       <c r="AE43">
@@ -7929,22 +7757,22 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH43">
         <v>0</v>
       </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
+      <c r="AI43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="1">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -7971,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="AU43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV43">
         <v>0</v>
@@ -8045,19 +7873,19 @@
         <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -8065,35 +7893,35 @@
       <c r="AA44">
         <v>0</v>
       </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
         <v>0</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44">
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44">
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44">
         <v>0</v>
@@ -8206,25 +8034,25 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -8233,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45">
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45">
         <v>0</v>
@@ -8349,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -8370,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -8516,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -8695,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ48">
         <v>0</v>
@@ -9049,50 +8877,50 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
-    <cfRule type="cellIs" dxfId="98" priority="9" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
-    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
-    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
-    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 C35:AW39 U34:W36 B35:D37 B40:AW49 B2:AW6 A4:AW34">
-    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/VenusLibra.xlsx
+++ b/Star Regein/Star Regein/VenusLibra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\新しいフォルダー\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,7 +87,21 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="1087">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -175,6 +189,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -261,6 +289,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -347,6 +389,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -433,12 +489,7719 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -692,6 +8455,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF333399"/>
+      <color rgb="FF000066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -736,7 +8505,7 @@
           <xdr:cNvPr id="2" name="直線コネクタ 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -780,7 +8549,7 @@
           <xdr:cNvPr id="6" name="直線コネクタ 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -824,7 +8593,7 @@
           <xdr:cNvPr id="8" name="直線コネクタ 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -868,7 +8637,7 @@
           <xdr:cNvPr id="9" name="直線コネクタ 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -912,7 +8681,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -956,7 +8725,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1267,7 +9036,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2851,13 +10620,13 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2908,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2929,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3000,10 +10769,10 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -3012,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -3051,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -3075,10 +10844,10 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -3149,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -3224,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3352,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -3364,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -3379,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3459,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -3620,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3668,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3835,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -3990,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -4139,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5098,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5247,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -5256,7 +13025,7 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5268,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -5346,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5426,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -5438,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -5501,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -5581,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -5635,7 +13404,7 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -5653,13 +13422,13 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP29">
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -5736,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -5784,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -5799,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -5826,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -5861,10 +13630,10 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -5930,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -5948,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -6007,10 +13776,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -6019,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -6028,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -6073,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -6174,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -6183,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -6228,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -6329,13 +14098,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -6380,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -6392,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -6469,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -6490,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -6532,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -6642,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -6681,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -6797,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -6836,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -6845,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH37">
         <v>0</v>
@@ -6940,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -6988,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -7080,7 +14849,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -7223,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -7337,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -7346,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="AV40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW40">
         <v>0</v>
@@ -7486,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS41">
         <v>0</v>
@@ -7542,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -7688,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -7948,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="AT44">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -8085,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP45">
         <v>0</v>
@@ -8097,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT45">
         <v>0</v>
@@ -8228,7 +15997,7 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -8252,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="AT46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -8323,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -8335,7 +16104,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -8362,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -8389,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP47">
         <v>0</v>
@@ -8484,7 +16253,7 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -8511,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -8532,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM48">
         <v>0</v>
@@ -8877,51 +16646,57 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="1064" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1063" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="1061" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1060" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="1059" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="1057" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="1056" priority="5" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A28:AW32 A2:A50 A24:AR27 B13:AW16 B17:AR23 AS17:AW27 AU15:AW17 B2:AW6 A4:AW12 C36:AW39 B40:AW49 C35:AQ35 A33:AQ34 AR33:AW35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="1055" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1040" priority="3" operator="equal">
       <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1041" priority="2" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1042" priority="1" operator="equal">
+      <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Star Regein/Star Regein/VenusLibra.xlsx
+++ b/Star Regein/Star Regein/VenusLibra.xlsx
@@ -232,8 +232,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="733425" y="942109"/>
-          <a:ext cx="7372350" cy="6580909"/>
+          <a:off x="733425" y="916641"/>
+          <a:ext cx="7372350" cy="6387353"/>
           <a:chOff x="733425" y="960664"/>
           <a:chExt cx="7372350" cy="6721929"/>
         </a:xfrm>
@@ -243,7 +243,7 @@
           <xdr:cNvPr id="2" name="直線コネクタ 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -287,7 +287,7 @@
           <xdr:cNvPr id="6" name="直線コネクタ 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -331,7 +331,7 @@
           <xdr:cNvPr id="8" name="直線コネクタ 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -375,7 +375,7 @@
           <xdr:cNvPr id="9" name="直線コネクタ 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -419,7 +419,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -463,7 +463,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>

--- a/Star Regein/Star Regein/VenusLibra.xlsx
+++ b/Star Regein/Star Regein/VenusLibra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\GA2B 田中\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,314 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -243,7 +550,7 @@
           <xdr:cNvPr id="2" name="直線コネクタ 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -287,7 +594,7 @@
           <xdr:cNvPr id="6" name="直線コネクタ 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -331,7 +638,7 @@
           <xdr:cNvPr id="8" name="直線コネクタ 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -375,7 +682,7 @@
           <xdr:cNvPr id="9" name="直線コネクタ 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -419,7 +726,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -463,7 +770,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -774,7 +1081,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4143,19 +4450,19 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -8384,57 +8691,60 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 B17:AR23 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Star Regein/Star Regein/VenusLibra.xlsx
+++ b/Star Regein/Star Regein/VenusLibra.xlsx
@@ -90,7 +90,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -102,16 +123,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF000066"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF333399"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -223,178 +306,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -550,7 +464,7 @@
           <xdr:cNvPr id="2" name="直線コネクタ 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -594,7 +508,7 @@
           <xdr:cNvPr id="6" name="直線コネクタ 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -638,7 +552,7 @@
           <xdr:cNvPr id="8" name="直線コネクタ 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -682,7 +596,7 @@
           <xdr:cNvPr id="9" name="直線コネクタ 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -726,7 +640,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -770,7 +684,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1081,7 +995,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1598,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1741,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1759,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1890,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1971,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
         <v>1</v>
@@ -2042,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -2066,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
         <v>6</v>
@@ -2111,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
         <v>1</v>
@@ -2132,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7">
         <v>1</v>
@@ -2197,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -2260,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -2406,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -2501,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2528,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -2552,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -2594,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>1</v>
@@ -2650,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2701,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2799,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2850,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -2898,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>1</v>
@@ -2984,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
         <v>6</v>
@@ -3416,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3440,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
         <v>6</v>
@@ -3455,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
         <v>1</v>
@@ -3494,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -3571,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -3649,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR17">
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU17" s="1">
         <v>0</v>
@@ -3732,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3792,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3804,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -3926,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -3953,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4072,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
         <v>1</v>
@@ -4090,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -4102,10 +4016,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -4170,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -4242,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4251,28 +4165,28 @@
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21">
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW21">
         <v>0</v>
@@ -4328,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -4412,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -4424,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW22">
         <v>1</v>
@@ -4477,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -4486,13 +4400,13 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4620,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -4647,10 +4561,10 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -4680,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
         <v>1</v>
@@ -4692,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="1">
         <v>0</v>
@@ -4754,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -4772,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4829,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -4838,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -4847,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
         <v>1</v>
@@ -4859,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="1">
         <v>0</v>
@@ -4999,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -5017,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1</v>
@@ -5130,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -5169,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27">
         <v>1</v>
@@ -5261,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>1</v>
@@ -5279,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -5324,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS28">
         <v>0</v>
@@ -5428,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <v>1</v>
@@ -5475,17 +5389,17 @@
       <c r="AQ29">
         <v>10</v>
       </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
+      <c r="AR29" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="1">
         <v>0</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29">
         <v>0</v>
@@ -5580,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>1</v>
@@ -5627,20 +5541,20 @@
       <c r="AQ30">
         <v>0</v>
       </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30">
+      <c r="AR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="1">
         <v>0</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -5777,19 +5691,19 @@
         <v>0</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>1</v>
-      </c>
-      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="1">
         <v>0</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV31">
         <v>0</v>
@@ -5920,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -6015,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -6027,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1">
         <v>1</v>
@@ -6072,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33">
         <v>1</v>
@@ -6081,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" s="1">
         <v>6</v>
@@ -6116,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -6164,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1">
         <v>6</v>
@@ -6176,13 +6090,13 @@
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -6221,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34">
         <v>1</v>
@@ -6328,13 +6242,13 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -6370,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" s="1">
         <v>6</v>
@@ -6465,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="1">
         <v>6</v>
@@ -6519,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36">
         <v>1</v>
@@ -6629,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>1</v>
@@ -6784,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -6820,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38">
         <v>1</v>
@@ -6933,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <v>1</v>
@@ -7022,10 +6936,10 @@
         <v>99</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -7088,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -7118,13 +7032,13 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40">
         <v>1</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40">
         <v>1</v>
@@ -7145,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -7264,13 +7178,13 @@
         <v>1</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI41" s="1">
         <v>6</v>
@@ -7300,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS41">
         <v>0</v>
@@ -7413,10 +7327,10 @@
         <v>0</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42">
         <v>0</v>
@@ -7446,13 +7360,13 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AR42">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS42">
         <v>0</v>
@@ -7565,16 +7479,16 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG43">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI43" s="1">
         <v>0</v>
@@ -7595,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP43">
         <v>0</v>
@@ -7607,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT43">
         <v>0</v>
@@ -7690,13 +7604,13 @@
         <v>1</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44">
         <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>1</v>
@@ -7720,16 +7634,16 @@
         <v>1</v>
       </c>
       <c r="AF44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44">
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44">
         <v>1</v>
@@ -7747,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP44">
         <v>0</v>
@@ -7759,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -7851,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
         <v>1</v>
@@ -7860,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
         <v>1</v>
@@ -7869,16 +7783,16 @@
         <v>1</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG45">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI45">
         <v>1</v>
@@ -7899,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="AO45">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP45">
         <v>0</v>
@@ -7911,13 +7825,13 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AT45">
         <v>0</v>
       </c>
       <c r="AU45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV45">
         <v>0</v>
@@ -8000,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -8012,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -8054,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS46">
         <v>0</v>
       </c>
       <c r="AT46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -8134,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -8149,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -8203,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP47">
         <v>0</v>
@@ -8289,16 +8203,16 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V48">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -8358,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ48">
         <v>0</v>
@@ -8691,59 +8605,59 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 B17:AR23 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 B17:AR23 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 B17:AR23 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 B17:AR23 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 B17:AR23 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 A28:AW32 B40:AW49 B17:AR23">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+  <conditionalFormatting sqref="AE1:AH4 A1:AN3 AJ1:AX1 B50:AX50 AX2:AX49 AI1:AI6 A35:B40 Q39:S41 U34:W36 B35:D37 A2:A50 AS17:AW27 AU15:AW17 B2:AW6 AR33:AW35 A33:AQ34 A4:AW12 B13:AW16 C35:AQ35 C36:AW39 A24:AR27 B17:AR23 A28:AW32 B40:AW49">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/VenusLibra.xlsx
+++ b/Star Regein/Star Regein/VenusLibra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\GA2B 田中\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\sterRegein\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,28 +96,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="618">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="190">
     <dxf>
       <font>
         <color theme="0"/>
@@ -129,6 +108,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -205,27 +219,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -236,6 +229,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -312,27 +340,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -343,6 +350,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -419,27 +461,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -450,6 +471,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -526,27 +582,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -557,6 +592,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -633,27 +703,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -664,6 +713,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -740,27 +824,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -771,6 +834,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -847,27 +945,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -878,6 +955,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -954,27 +1066,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -985,6 +1076,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1061,27 +1187,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1092,6 +1197,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1168,27 +1308,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1199,85 +1318,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1291,658 +1334,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF666699"/>
         </patternFill>
       </fill>
@@ -1958,2654 +1349,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4844,7 +1587,7 @@
           <xdr:cNvPr id="2" name="直線コネクタ 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D5011CA-8B83-4B58-9AA1-3FA4E4F91D35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4888,7 +1631,7 @@
           <xdr:cNvPr id="6" name="直線コネクタ 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6ACE029-B85F-45B8-8224-9068B38EE362}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4932,7 +1675,7 @@
           <xdr:cNvPr id="8" name="直線コネクタ 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52392A61-AD4D-47C9-8BE6-F2865A6E0DE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4976,7 +1719,7 @@
           <xdr:cNvPr id="9" name="直線コネクタ 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ACE1738-C361-4057-88E0-804C12F79C1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5020,7 +1763,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92F00C65-EF85-4B63-B29D-F6529EC87659}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5064,7 +1807,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D56B6EDA-622A-46B1-886E-535879CD45EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5375,7 +2118,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8622,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -8777,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -12986,740 +9729,740 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AE1:AH4 A1:AN3 AI1:AI6 AN1:AN39 AJ1:AX1 A35:AX50 A32:G33 J32:AX32 A22:L23 O22:AX23 A9:K10 A28:J29 A26:X27 AA26:AX27 AI30:AX31 L18:AX19 A11:AI12 AL11:AX12 AD24:AX25 J33:AC33 A34:AC34 A20:AX21 N9:AD10 AG9:AX10 A24:AA25 M28:AX29 A30:AF31 AF33:AX34 A18:I19 A2:AX8 A13:AX17">
-    <cfRule type="cellIs" dxfId="617" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AH4 A1:AN3 AI1:AI6 AN1:AN39 AJ1:AX1 A35:AX50 A32:G33 J32:AX32 A22:L23 O22:AX23 A9:K10 A28:J29 A26:X27 AA26:AX27 AI30:AX31 L18:AX19 A11:AI12 AL11:AX12 AD24:AX25 J33:AC33 A34:AC34 A20:AX21 N9:AD10 AG9:AX10 A24:AA25 M28:AX29 A30:AF31 AF33:AX34 A18:I19 A2:AX8 A13:AX17">
-    <cfRule type="cellIs" dxfId="614" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="186" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="187" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AH4 A1:AN3 AI1:AI6 AN1:AN39 AJ1:AX1 A35:AX50 A32:G33 J32:AX32 A22:L23 O22:AX23 A9:K10 A28:J29 A26:X27 AA26:AX27 AI30:AX31 L18:AX19 A11:AI12 AL11:AX12 AD24:AX25 J33:AC33 A34:AC34 A20:AX21 N9:AD10 AG9:AX10 A24:AA25 M28:AX29 A30:AF31 AF33:AX34 A18:I19 A2:AX8 A13:AX17">
-    <cfRule type="cellIs" dxfId="612" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="184" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AH4 A1:AN3 AI1:AI6 AN1:AN39 AJ1:AX1 A35:AX50 A32:G33 J32:AX32 A22:L23 O22:AX23 A9:K10 A28:J29 A26:X27 AA26:AX27 AI30:AX31 L18:AX19 A11:AI12 AL11:AX12 AD24:AX25 J33:AC33 A34:AC34 A20:AX21 N9:AD10 AG9:AX10 A24:AA25 M28:AX29 A30:AF31 AF33:AX34 A18:I19 A2:AX8 A13:AX17">
-    <cfRule type="cellIs" dxfId="610" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AH4 A1:AN3 AI1:AI6 AN1:AN39 AJ1:AX1 A35:AX50 A32:G33 J32:AX32 A22:L23 O22:AX23 A9:K10 A28:J29 A26:X27 AA26:AX27 AI30:AX31 L18:AX19 A11:AI12 AL11:AX12 AD24:AX25 J33:AC33 A34:AC34 A20:AX21 N9:AD10 AG9:AX10 A24:AA25 M28:AX29 A30:AF31 AF33:AX34 A18:I19 A2:AX8 A13:AX17">
-    <cfRule type="cellIs" dxfId="609" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="182" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AH4 A1:AN3 AI1:AI6 AN1:AN39 AJ1:AX1 A35:AX50 A32:G33 J32:AX32 A22:L23 O22:AX23 A9:K10 A28:J29 A26:X27 AA26:AX27 AI30:AX31 L18:AX19 A11:AI12 AL11:AX12 AD24:AX25 J33:AC33 A34:AC34 A20:AX21 N9:AD10 AG9:AX10 A24:AA25 M28:AX29 A30:AF31 AF33:AX34 A18:I19 A2:AX8 A13:AX17">
-    <cfRule type="cellIs" dxfId="608" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="181" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD1048576 A32:G33 J32:XFD32 A22:L23 O22:XFD23 A9:K10 A28:J29 A26:X27 AA26:XFD27 AI30:XFD31 L18:XFD19 A11:AI12 AL11:XFD12 AD24:XFD25 J33:AC33 A34:AC34 A20:XFD21 N9:AD10 AG9:XFD10 A24:AA25 M28:XFD29 A30:AF31 AF33:XFD34 A18:I19 A1:XFD8 A13:XFD17">
-    <cfRule type="cellIs" dxfId="607" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="180" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="178" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="177" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I33">
-    <cfRule type="cellIs" dxfId="589" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="174" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I33">
-    <cfRule type="cellIs" dxfId="583" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="172" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="173" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I33">
-    <cfRule type="cellIs" dxfId="579" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="170" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="171" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I33">
-    <cfRule type="cellIs" dxfId="575" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="169" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I33">
-    <cfRule type="cellIs" dxfId="573" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="168" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I33">
-    <cfRule type="cellIs" dxfId="571" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="167" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I33">
-    <cfRule type="cellIs" dxfId="569" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="161" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="162" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="163" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="164" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="165" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="166" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:N23">
-    <cfRule type="cellIs" dxfId="557" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="158" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:N23">
-    <cfRule type="cellIs" dxfId="551" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:N23">
-    <cfRule type="cellIs" dxfId="547" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="154" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="155" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:N23">
-    <cfRule type="cellIs" dxfId="543" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="153" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:N23">
-    <cfRule type="cellIs" dxfId="541" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:N23">
-    <cfRule type="cellIs" dxfId="539" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="151" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:N23">
-    <cfRule type="cellIs" dxfId="537" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="145" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="146" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="147" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="149" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="150" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AF10">
-    <cfRule type="cellIs" dxfId="525" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AF10">
-    <cfRule type="cellIs" dxfId="519" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="140" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="141" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AF10">
-    <cfRule type="cellIs" dxfId="515" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="138" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AF10">
-    <cfRule type="cellIs" dxfId="511" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AF10">
-    <cfRule type="cellIs" dxfId="509" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AF10">
-    <cfRule type="cellIs" dxfId="507" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="135" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AF10">
-    <cfRule type="cellIs" dxfId="505" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="129" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="130" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="131" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="132" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="133" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="134" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:Z27">
-    <cfRule type="cellIs" dxfId="493" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="126" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:Z27">
-    <cfRule type="cellIs" dxfId="487" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="125" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:Z27">
-    <cfRule type="cellIs" dxfId="483" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="123" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:Z27">
-    <cfRule type="cellIs" dxfId="479" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="121" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:Z27">
-    <cfRule type="cellIs" dxfId="477" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="120" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:Z27">
-    <cfRule type="cellIs" dxfId="475" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:Z27">
-    <cfRule type="cellIs" dxfId="473" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="113" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="114" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="115" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="116" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="118" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AH31">
-    <cfRule type="cellIs" dxfId="461" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AH31">
-    <cfRule type="cellIs" dxfId="455" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AH31">
-    <cfRule type="cellIs" dxfId="451" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AH31">
-    <cfRule type="cellIs" dxfId="447" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AH31">
-    <cfRule type="cellIs" dxfId="445" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AH31">
-    <cfRule type="cellIs" dxfId="443" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AH31">
-    <cfRule type="cellIs" dxfId="441" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="101" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:L29">
-    <cfRule type="cellIs" dxfId="429" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:L29">
-    <cfRule type="cellIs" dxfId="423" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:L29">
-    <cfRule type="cellIs" dxfId="419" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:L29">
-    <cfRule type="cellIs" dxfId="415" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:L29">
-    <cfRule type="cellIs" dxfId="413" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:L29">
-    <cfRule type="cellIs" dxfId="411" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:L29">
-    <cfRule type="cellIs" dxfId="409" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="86" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K19">
-    <cfRule type="cellIs" dxfId="397" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="78" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K19">
-    <cfRule type="cellIs" dxfId="391" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K19">
-    <cfRule type="cellIs" dxfId="387" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K19">
-    <cfRule type="cellIs" dxfId="383" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K19">
-    <cfRule type="cellIs" dxfId="381" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K19">
-    <cfRule type="cellIs" dxfId="379" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K19">
-    <cfRule type="cellIs" dxfId="377" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="65" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="69" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="70" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10">
-    <cfRule type="cellIs" dxfId="365" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10">
-    <cfRule type="cellIs" dxfId="359" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10">
-    <cfRule type="cellIs" dxfId="355" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10">
-    <cfRule type="cellIs" dxfId="351" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10">
-    <cfRule type="cellIs" dxfId="349" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10">
-    <cfRule type="cellIs" dxfId="347" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10">
-    <cfRule type="cellIs" dxfId="345" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AK12">
-    <cfRule type="cellIs" dxfId="333" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AK12">
-    <cfRule type="cellIs" dxfId="327" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AK12">
-    <cfRule type="cellIs" dxfId="323" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AK12">
-    <cfRule type="cellIs" dxfId="319" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AK12">
-    <cfRule type="cellIs" dxfId="317" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AK12">
-    <cfRule type="cellIs" dxfId="315" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AK12">
-    <cfRule type="cellIs" dxfId="313" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AC25">
-    <cfRule type="cellIs" dxfId="301" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AC25">
-    <cfRule type="cellIs" dxfId="295" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AC25">
-    <cfRule type="cellIs" dxfId="291" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AC25">
-    <cfRule type="cellIs" dxfId="287" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AC25">
-    <cfRule type="cellIs" dxfId="285" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AC25">
-    <cfRule type="cellIs" dxfId="283" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AC25">
-    <cfRule type="cellIs" dxfId="281" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33:AE34">
-    <cfRule type="cellIs" dxfId="269" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33:AE34">
-    <cfRule type="cellIs" dxfId="263" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33:AE34">
-    <cfRule type="cellIs" dxfId="259" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33:AE34">
-    <cfRule type="cellIs" dxfId="255" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33:AE34">
-    <cfRule type="cellIs" dxfId="253" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33:AE34">
-    <cfRule type="cellIs" dxfId="251" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33:AE34">
-    <cfRule type="cellIs" dxfId="249" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/VenusLibra.xlsx
+++ b/Star Regein/Star Regein/VenusLibra.xlsx
@@ -2117,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5326,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5520,37 +5520,37 @@
         <v>0</v>
       </c>
       <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
         <v>5</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="2">
         <v>0</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z30">
         <v>0</v>
